--- a/src/main/resources/data/cdes/multipleSclerosis_cdes_v1.xlsx
+++ b/src/main/resources/data/cdes/multipleSclerosis_cdes_v1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="463">
   <si>
     <t xml:space="preserve">csvFile</t>
   </si>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">{0,"Control"},{1,"Patient"}</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/diagnosis/patient_control</t>
+    <t xml:space="preserve">/multiplesclerosis/diagnosis/patient_control</t>
   </si>
   <si>
     <t xml:space="preserve">unknown_methodology</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">real</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/diagnosis/Disease_duration</t>
+    <t xml:space="preserve">/multiplesclerosis/diagnosis/Disease_duration</t>
   </si>
   <si>
     <t xml:space="preserve">Code diagnosis ICD10</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">{“G35”,”Multiple sclerosis”},{“Z00”,”Healthy individuals”}</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/diagnosis/ICD10</t>
+    <t xml:space="preserve">/multiplesclerosis/diagnosis/ICD10</t>
   </si>
   <si>
     <t xml:space="preserve">EDSS</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">Expanded Disability Status Scale</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/scores/EDSS</t>
+    <t xml:space="preserve">/multiplesclerosis/scores/EDSS</t>
   </si>
   <si>
     <t xml:space="preserve">PASAT</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Paced Auditory Serial Addition Test</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/scores/PASAT</t>
+    <t xml:space="preserve">/multiplesclerosis/scores/PASAT</t>
   </si>
   <si>
     <t xml:space="preserve">SDMT</t>
@@ -121,13 +121,13 @@
     <t xml:space="preserve">Symbol Digit Modalities Test</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/scores/SDMT</t>
+    <t xml:space="preserve">/multiplesclerosis/scores/SDMT</t>
   </si>
   <si>
     <t xml:space="preserve">Isaacs</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/scores/Isaacs</t>
+    <t xml:space="preserve">/multiplesclerosis/scores/Isaacs</t>
   </si>
   <si>
     <t xml:space="preserve">Age</t>
@@ -136,7 +136,7 @@
     <t xml:space="preserve">integer</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/demographics/Age</t>
+    <t xml:space="preserve">/multiplesclerosis/demographics/Age</t>
   </si>
   <si>
     <t xml:space="preserve">Gender</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">{“F”,”Female”},{“M”,”Male”}</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/demographics/Gender</t>
+    <t xml:space="preserve">/multiplesclerosis/demographics/Gender</t>
   </si>
   <si>
     <t xml:space="preserve">Education [years]</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">Education</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/demographics/Education</t>
+    <t xml:space="preserve">/multiplesclerosis/demographics/Education</t>
   </si>
   <si>
     <t xml:space="preserve">Handedness</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">{“right”,”right handed”},{“left”,”left handed”}</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/demographics/Handedness</t>
+    <t xml:space="preserve">/multiplesclerosis/demographics/Handedness</t>
   </si>
   <si>
     <t xml:space="preserve">Brainstem</t>
@@ -181,7 +181,10 @@
     <t xml:space="preserve">Brainstem volume</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/brainstem</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/brainstem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mip-cde</t>
   </si>
   <si>
     <t xml:space="preserve">TIV</t>
@@ -193,7 +196,7 @@
     <t xml:space="preserve">Total intra-cranial volume</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/tiv</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/tiv</t>
   </si>
   <si>
     <t xml:space="preserve">3rd Ventricle</t>
@@ -202,7 +205,7 @@
     <t xml:space="preserve">_3rdventricle</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/_3rdventricle</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/csf_volume/_3rdventricle</t>
   </si>
   <si>
     <t xml:space="preserve">4th Ventricle</t>
@@ -211,7 +214,7 @@
     <t xml:space="preserve">_4thventricle</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/_4thventricle</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/csf_volume/_4thventricle</t>
   </si>
   <si>
     <t xml:space="preserve">CSF global</t>
@@ -220,7 +223,7 @@
     <t xml:space="preserve">csfglobal</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/csfglobal</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/csf_volume/csfglobal</t>
   </si>
   <si>
     <t xml:space="preserve">Left inferior lateral ventricle</t>
@@ -229,7 +232,7 @@
     <t xml:space="preserve">leftinflatvent</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/leftinflatvent</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/csf_volume/leftinflatvent</t>
   </si>
   <si>
     <t xml:space="preserve">Left lateral ventricle</t>
@@ -238,7 +241,7 @@
     <t xml:space="preserve">leftlateralventricle</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/leftlateralventricle</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/csf_volume/leftlateralventricle</t>
   </si>
   <si>
     <t xml:space="preserve">Right inferior lateral ventricle</t>
@@ -247,7 +250,7 @@
     <t xml:space="preserve">rightinflatvent</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/rightinflatvent</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/csf_volume/rightinflatvent</t>
   </si>
   <si>
     <t xml:space="preserve">Right lateral ventricle</t>
@@ -256,7 +259,7 @@
     <t xml:space="preserve">rightlateralventricle</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/rightlateralventricle</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/csf_volume/rightlateralventricle</t>
   </si>
   <si>
     <t xml:space="preserve">Cerebellar Vermal Lobules I-V</t>
@@ -265,7 +268,7 @@
     <t xml:space="preserve">cerebellarvermallobulesiv</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesiv</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesiv</t>
   </si>
   <si>
     <t xml:space="preserve">Cerebellar Vermal Lobules VIII-X</t>
@@ -274,7 +277,7 @@
     <t xml:space="preserve">cerebellarvermallobulesviiix</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesviiix</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesviiix</t>
   </si>
   <si>
     <t xml:space="preserve">Cerebellar Vermal Lobules VI-VII</t>
@@ -283,7 +286,7 @@
     <t xml:space="preserve">cerebellarvermallobulesvivii</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesvivii</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesvivii</t>
   </si>
   <si>
     <t xml:space="preserve">Left Cerebellum Exterior</t>
@@ -292,7 +295,7 @@
     <t xml:space="preserve">leftcerebellumexterior</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/leftcerebellumexterior</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/cerebellum/leftcerebellumexterior</t>
   </si>
   <si>
     <t xml:space="preserve">Right Cerebellum Exterior</t>
@@ -301,7 +304,7 @@
     <t xml:space="preserve">rightcerebellumexterior</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/rightcerebellumexterior</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/cerebellum/rightcerebellumexterior</t>
   </si>
   <si>
     <t xml:space="preserve">Left Amygdala</t>
@@ -310,7 +313,7 @@
     <t xml:space="preserve">leftamygdala</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/amygdala/leftamygdala</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/cerebral_nuclei/amygdala/leftamygdala</t>
   </si>
   <si>
     <t xml:space="preserve">Right Amygdala</t>
@@ -319,7 +322,7 @@
     <t xml:space="preserve">rightamygdala</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/amygdala/rightamygdala</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/cerebral_nuclei/amygdala/rightamygdala</t>
   </si>
   <si>
     <t xml:space="preserve">Left Accumbens Area</t>
@@ -328,7 +331,7 @@
     <t xml:space="preserve">leftaccumbensarea</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftaccumbensarea</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftaccumbensarea</t>
   </si>
   <si>
     <t xml:space="preserve">Left Basal Forebrain</t>
@@ -337,7 +340,7 @@
     <t xml:space="preserve">leftbasalforebrain</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftbasalforebrain</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftbasalforebrain</t>
   </si>
   <si>
     <t xml:space="preserve">Left Caudate</t>
@@ -346,7 +349,7 @@
     <t xml:space="preserve">leftcaudate</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftcaudate</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftcaudate</t>
   </si>
   <si>
     <t xml:space="preserve">Left Pallidum</t>
@@ -355,7 +358,7 @@
     <t xml:space="preserve">leftpallidum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftpallidum</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftpallidum</t>
   </si>
   <si>
     <t xml:space="preserve">Left Putamen</t>
@@ -364,7 +367,7 @@
     <t xml:space="preserve">leftputamen</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftputamen</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftputamen</t>
   </si>
   <si>
     <t xml:space="preserve">Right Accumbens Area</t>
@@ -373,7 +376,7 @@
     <t xml:space="preserve">rightaccumbensarea</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightaccumbensarea</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightaccumbensarea</t>
   </si>
   <si>
     <t xml:space="preserve">Right Basal Forebrain</t>
@@ -382,7 +385,7 @@
     <t xml:space="preserve">rightbasalforebrain</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightbasalforebrain</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightbasalforebrain</t>
   </si>
   <si>
     <t xml:space="preserve">Right Caudate</t>
@@ -391,7 +394,7 @@
     <t xml:space="preserve">rightcaudate</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightcaudate</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightcaudate</t>
   </si>
   <si>
     <t xml:space="preserve">Right Pallidum</t>
@@ -400,7 +403,7 @@
     <t xml:space="preserve">rightpallidum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightpallidum</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightpallidum</t>
   </si>
   <si>
     <t xml:space="preserve">Right Putamen</t>
@@ -409,7 +412,7 @@
     <t xml:space="preserve">rightputamen</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightputamen</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightputamen</t>
   </si>
   <si>
     <t xml:space="preserve">Left Ventral DC</t>
@@ -418,7 +421,7 @@
     <t xml:space="preserve">leftventraldc</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/diencephalon/leftventraldc</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/diencephalon/leftventraldc</t>
   </si>
   <si>
     <t xml:space="preserve">Right Ventral DC</t>
@@ -427,7 +430,7 @@
     <t xml:space="preserve">rightventraldc</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/diencephalon/rightventraldc</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/diencephalon/rightventraldc</t>
   </si>
   <si>
     <t xml:space="preserve">Left anterior orbital gyrus</t>
@@ -436,7 +439,7 @@
     <t xml:space="preserve">leftaorganteriororbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftaorganteriororbitalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftaorganteriororbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left central operculum</t>
@@ -445,7 +448,7 @@
     <t xml:space="preserve">leftcocentraloperculum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftcocentraloperculum</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftcocentraloperculum</t>
   </si>
   <si>
     <t xml:space="preserve">Left frontal operculum</t>
@@ -454,7 +457,7 @@
     <t xml:space="preserve">leftfofrontaloperculum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftfofrontaloperculum</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftfofrontaloperculum</t>
   </si>
   <si>
     <t xml:space="preserve">Left frontal pole</t>
@@ -463,7 +466,7 @@
     <t xml:space="preserve">leftfrpfrontalpole</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftfrpfrontalpole</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftfrpfrontalpole</t>
   </si>
   <si>
     <t xml:space="preserve">Left gyrus rectus</t>
@@ -472,7 +475,7 @@
     <t xml:space="preserve">leftgregyrusrectus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftgregyrusrectus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftgregyrusrectus</t>
   </si>
   <si>
     <t xml:space="preserve">Left lateral orbital gyrus</t>
@@ -481,7 +484,7 @@
     <t xml:space="preserve">leftlorglateralorbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftlorglateralorbitalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftlorglateralorbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left medial frontal cortex</t>
@@ -490,7 +493,7 @@
     <t xml:space="preserve">leftmfcmedialfrontalcortex</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftmfcmedialfrontalcortex</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftmfcmedialfrontalcortex</t>
   </si>
   <si>
     <t xml:space="preserve">Left middle frontal gyrus</t>
@@ -499,7 +502,7 @@
     <t xml:space="preserve">leftmfgmiddlefrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftmfgmiddlefrontalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftmfgmiddlefrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left medial orbital gyrus</t>
@@ -508,7 +511,7 @@
     <t xml:space="preserve">leftmorgmedialorbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftmorgmedialorbitalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftmorgmedialorbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left precentral gyrus medial segment</t>
@@ -517,7 +520,7 @@
     <t xml:space="preserve">leftmprgprecentralgyrusmedialsegment</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftmprgprecentralgyrusmedialsegment</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftmprgprecentralgyrusmedialsegment</t>
   </si>
   <si>
     <t xml:space="preserve">Left superior frontal gyrus medial segment</t>
@@ -526,7 +529,7 @@
     <t xml:space="preserve">leftmsfgsuperiorfrontalgyrusmedialsegment</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftmsfgsuperiorfrontalgyrusmedialsegment</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftmsfgsuperiorfrontalgyrusmedialsegment</t>
   </si>
   <si>
     <t xml:space="preserve">Left opercular part of the inferior frontal gyrus</t>
@@ -535,7 +538,7 @@
     <t xml:space="preserve">leftopifgopercularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftopifgopercularpartoftheinferiorfrontalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftopifgopercularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left orbital part of the inferior frontal gyrus</t>
@@ -544,7 +547,7 @@
     <t xml:space="preserve">leftorifgorbitalpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftorifgorbitalpartoftheinferiorfrontalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftorifgorbitalpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left parietal operculum</t>
@@ -553,7 +556,7 @@
     <t xml:space="preserve">leftpoparietaloperculum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftpoparietaloperculum</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftpoparietaloperculum</t>
   </si>
   <si>
     <t xml:space="preserve">Left posterior orbital gyrus</t>
@@ -562,7 +565,7 @@
     <t xml:space="preserve">leftporgposteriororbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftporgposteriororbitalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftporgposteriororbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left precentral gyrus</t>
@@ -571,7 +574,7 @@
     <t xml:space="preserve">leftprgprecentralgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftprgprecentralgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftprgprecentralgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left subcallosal area</t>
@@ -580,7 +583,7 @@
     <t xml:space="preserve">leftscasubcallosalarea</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftscasubcallosalarea</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftscasubcallosalarea</t>
   </si>
   <si>
     <t xml:space="preserve">Left superior frontal gyrus</t>
@@ -589,7 +592,7 @@
     <t xml:space="preserve">leftsfgsuperiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftsfgsuperiorfrontalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftsfgsuperiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left supplementary motor cortex</t>
@@ -598,7 +601,7 @@
     <t xml:space="preserve">leftsmcsupplementarymotorcortex</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftsmcsupplementarymotorcortex</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/leftsmcsupplementarymotorcortex</t>
   </si>
   <si>
     <t xml:space="preserve">Left triangular part of the inferior frontal gyrus</t>
@@ -607,7 +610,7 @@
     <t xml:space="preserve">lefttrifgtriangularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/lefttrifgtriangularpartoftheinferiorfrontalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/lefttrifgtriangularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right anterior orbital gyrus</t>
@@ -616,7 +619,7 @@
     <t xml:space="preserve">rightaorganteriororbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightaorganteriororbitalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightaorganteriororbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right central operculum</t>
@@ -625,7 +628,7 @@
     <t xml:space="preserve">rightcocentraloperculum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightcocentraloperculum</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightcocentraloperculum</t>
   </si>
   <si>
     <t xml:space="preserve">Right frontal operculum</t>
@@ -634,7 +637,7 @@
     <t xml:space="preserve">rightfofrontaloperculum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightfofrontaloperculum</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightfofrontaloperculum</t>
   </si>
   <si>
     <t xml:space="preserve">Right frontal pole</t>
@@ -643,7 +646,7 @@
     <t xml:space="preserve">rightfrpfrontalpole</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightfrpfrontalpole</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightfrpfrontalpole</t>
   </si>
   <si>
     <t xml:space="preserve">Right gyrus rectus</t>
@@ -652,7 +655,7 @@
     <t xml:space="preserve">rightgregyrusrectus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightgregyrusrectus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightgregyrusrectus</t>
   </si>
   <si>
     <t xml:space="preserve">Right lateral orbital gyrus</t>
@@ -661,7 +664,7 @@
     <t xml:space="preserve">rightlorglateralorbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightlorglateralorbitalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightlorglateralorbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right medial frontal cortex</t>
@@ -670,7 +673,7 @@
     <t xml:space="preserve">rightmfcmedialfrontalcortex</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightmfcmedialfrontalcortex</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightmfcmedialfrontalcortex</t>
   </si>
   <si>
     <t xml:space="preserve">Right middle frontal gyrus</t>
@@ -679,7 +682,7 @@
     <t xml:space="preserve">rightmfgmiddlefrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightmfgmiddlefrontalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightmfgmiddlefrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right medial orbital gyrus</t>
@@ -688,7 +691,7 @@
     <t xml:space="preserve">rightmorgmedialorbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightmorgmedialorbitalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightmorgmedialorbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right precentral gyrus medial segment</t>
@@ -697,7 +700,7 @@
     <t xml:space="preserve">rightmprgprecentralgyrusmedialsegment</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightmprgprecentralgyrusmedialsegment</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightmprgprecentralgyrusmedialsegment</t>
   </si>
   <si>
     <t xml:space="preserve">Right superior frontal gyrus medial segment</t>
@@ -706,7 +709,7 @@
     <t xml:space="preserve">rightmsfgsuperiorfrontalgyrusmedialsegment</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightmsfgsuperiorfrontalgyrusmedialsegment</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightmsfgsuperiorfrontalgyrusmedialsegment</t>
   </si>
   <si>
     <t xml:space="preserve">Right opercular part of the inferior frontal gyrus</t>
@@ -715,7 +718,7 @@
     <t xml:space="preserve">rightopifgopercularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightopifgopercularpartoftheinferiorfrontalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightopifgopercularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right orbital part of the inferior frontal gyrus</t>
@@ -724,7 +727,7 @@
     <t xml:space="preserve">rightorifgorbitalpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightorifgorbitalpartoftheinferiorfrontalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightorifgorbitalpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right parietal operculum</t>
@@ -733,7 +736,7 @@
     <t xml:space="preserve">rightpoparietaloperculum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightpoparietaloperculum</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightpoparietaloperculum</t>
   </si>
   <si>
     <t xml:space="preserve">Right posterior orbital gyrus</t>
@@ -742,7 +745,7 @@
     <t xml:space="preserve">rightporgposteriororbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightporgposteriororbitalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightporgposteriororbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right precentral gyrus</t>
@@ -751,7 +754,7 @@
     <t xml:space="preserve">rightprgprecentralgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightprgprecentralgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightprgprecentralgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right subcallosal area</t>
@@ -760,7 +763,7 @@
     <t xml:space="preserve">rightscasubcallosalarea</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightscasubcallosalarea</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightscasubcallosalarea</t>
   </si>
   <si>
     <t xml:space="preserve">Right superior frontal gyrus</t>
@@ -769,7 +772,7 @@
     <t xml:space="preserve">rightsfgsuperiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightsfgsuperiorfrontalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightsfgsuperiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right supplementary motor cortex</t>
@@ -778,7 +781,7 @@
     <t xml:space="preserve">rightsmcsupplementarymotorcortex</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightsmcsupplementarymotorcortex</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/rightsmcsupplementarymotorcortex</t>
   </si>
   <si>
     <t xml:space="preserve">Right triangular part of the inferior frontal gyrus</t>
@@ -787,7 +790,7 @@
     <t xml:space="preserve">righttrifgtriangularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/righttrifgtriangularpartoftheinferiorfrontalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/frontal/righttrifgtriangularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left anterior insula</t>
@@ -796,7 +799,7 @@
     <t xml:space="preserve">leftainsanteriorinsula</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/insula/leftainsanteriorinsula</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/insula/leftainsanteriorinsula</t>
   </si>
   <si>
     <t xml:space="preserve">Left posterior insula</t>
@@ -805,7 +808,7 @@
     <t xml:space="preserve">leftpinsposteriorinsula</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/insula/leftpinsposteriorinsula</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/insula/leftpinsposteriorinsula</t>
   </si>
   <si>
     <t xml:space="preserve">Right anterior insula</t>
@@ -814,7 +817,7 @@
     <t xml:space="preserve">rightainsanteriorinsula</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/insula/rightainsanteriorinsula</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/insula/rightainsanteriorinsula</t>
   </si>
   <si>
     <t xml:space="preserve">Right posterior insula</t>
@@ -823,7 +826,7 @@
     <t xml:space="preserve">rightpinsposteriorinsula</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/insula/rightpinsposteriorinsula</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/insula/rightpinsposteriorinsula</t>
   </si>
   <si>
     <t xml:space="preserve">Left anterior cingulate gyrus</t>
@@ -832,7 +835,7 @@
     <t xml:space="preserve">leftacgganteriorcingulategyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/leftacgganteriorcingulategyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/limbic/leftacgganteriorcingulategyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left entorhinal area</t>
@@ -841,7 +844,7 @@
     <t xml:space="preserve">leftententorhinalarea</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/leftententorhinalarea</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/limbic/leftententorhinalarea</t>
   </si>
   <si>
     <t xml:space="preserve">Left Hippocampus</t>
@@ -850,7 +853,7 @@
     <t xml:space="preserve">lefthippocampus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/lefthippocampus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/limbic/lefthippocampus</t>
   </si>
   <si>
     <t xml:space="preserve">Left middle cingulate gyrus</t>
@@ -859,7 +862,7 @@
     <t xml:space="preserve">leftmcggmiddlecingulategyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/leftmcggmiddlecingulategyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/limbic/leftmcggmiddlecingulategyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left posterior cingulate gyrus</t>
@@ -868,7 +871,7 @@
     <t xml:space="preserve">leftpcggposteriorcingulategyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/leftpcggposteriorcingulategyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/limbic/leftpcggposteriorcingulategyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left parahippocampal gyrus</t>
@@ -877,7 +880,7 @@
     <t xml:space="preserve">leftphgparahippocampalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/leftphgparahippocampalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/limbic/leftphgparahippocampalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left Thalamus</t>
@@ -886,7 +889,7 @@
     <t xml:space="preserve">leftthalamusproper</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/leftthalamusproper</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/limbic/leftthalamusproper</t>
   </si>
   <si>
     <t xml:space="preserve">Right anterior cingulate gyrus</t>
@@ -895,7 +898,7 @@
     <t xml:space="preserve">rightacgganteriorcingulategyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/rightacgganteriorcingulategyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/limbic/rightacgganteriorcingulategyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right entorhinal area</t>
@@ -904,7 +907,7 @@
     <t xml:space="preserve">rightententorhinalarea</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/rightententorhinalarea</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/limbic/rightententorhinalarea</t>
   </si>
   <si>
     <t xml:space="preserve">Right Hippocampus</t>
@@ -913,7 +916,7 @@
     <t xml:space="preserve">righthippocampus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/righthippocampus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/limbic/righthippocampus</t>
   </si>
   <si>
     <t xml:space="preserve">Right middle cingulate gyrus</t>
@@ -922,7 +925,7 @@
     <t xml:space="preserve">rightmcggmiddlecingulategyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/rightmcggmiddlecingulategyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/limbic/rightmcggmiddlecingulategyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right posterior cingulate gyrus</t>
@@ -931,7 +934,7 @@
     <t xml:space="preserve">rightpcggposteriorcingulategyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/rightpcggposteriorcingulategyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/limbic/rightpcggposteriorcingulategyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right parahippocampal gyrus</t>
@@ -940,7 +943,7 @@
     <t xml:space="preserve">rightphgparahippocampalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/rightphgparahippocampalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/limbic/rightphgparahippocampalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right Thalamus</t>
@@ -949,7 +952,7 @@
     <t xml:space="preserve">rightthalamusproper</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/rightthalamusproper</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/limbic/rightthalamusproper</t>
   </si>
   <si>
     <t xml:space="preserve">Left calcarine cortex</t>
@@ -958,7 +961,7 @@
     <t xml:space="preserve">leftcalccalcarinecortex</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftcalccalcarinecortex</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/occipital/leftcalccalcarinecortex</t>
   </si>
   <si>
     <t xml:space="preserve">Left cuneus</t>
@@ -967,7 +970,7 @@
     <t xml:space="preserve">leftcuncuneus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftcuncuneus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/occipital/leftcuncuneus</t>
   </si>
   <si>
     <t xml:space="preserve">Left inferior occipital gyrus</t>
@@ -976,7 +979,7 @@
     <t xml:space="preserve">leftioginferioroccipitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftioginferioroccipitalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/occipital/leftioginferioroccipitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left lingual gyrus</t>
@@ -985,7 +988,7 @@
     <t xml:space="preserve">leftliglingualgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftliglingualgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/occipital/leftliglingualgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left middle occipital gyrus</t>
@@ -994,7 +997,7 @@
     <t xml:space="preserve">leftmogmiddleoccipitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftmogmiddleoccipitalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/occipital/leftmogmiddleoccipitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left occipital pole</t>
@@ -1003,7 +1006,7 @@
     <t xml:space="preserve">leftocpoccipitalpole</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftocpoccipitalpole</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/occipital/leftocpoccipitalpole</t>
   </si>
   <si>
     <t xml:space="preserve">Left occipital fusiform gyrus</t>
@@ -1012,7 +1015,7 @@
     <t xml:space="preserve">leftofugoccipitalfusiformgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftofugoccipitalfusiformgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/occipital/leftofugoccipitalfusiformgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left superior occipital gyrus</t>
@@ -1021,7 +1024,7 @@
     <t xml:space="preserve">leftsogsuperioroccipitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftsogsuperioroccipitalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/occipital/leftsogsuperioroccipitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right calcarine cortex</t>
@@ -1030,7 +1033,7 @@
     <t xml:space="preserve">rightcalccalcarinecortex</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightcalccalcarinecortex</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/occipital/rightcalccalcarinecortex</t>
   </si>
   <si>
     <t xml:space="preserve">Right cuneus</t>
@@ -1039,7 +1042,7 @@
     <t xml:space="preserve">rightcuncuneus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightcuncuneus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/occipital/rightcuncuneus</t>
   </si>
   <si>
     <t xml:space="preserve">Right inferior occipital gyrus</t>
@@ -1048,7 +1051,7 @@
     <t xml:space="preserve">rightioginferioroccipitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightioginferioroccipitalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/occipital/rightioginferioroccipitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right lingual gyrus</t>
@@ -1057,7 +1060,7 @@
     <t xml:space="preserve">rightliglingualgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightliglingualgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/occipital/rightliglingualgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right middle occipital gyrus</t>
@@ -1066,7 +1069,7 @@
     <t xml:space="preserve">rightmogmiddleoccipitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightmogmiddleoccipitalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/occipital/rightmogmiddleoccipitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right occipital pole</t>
@@ -1075,7 +1078,7 @@
     <t xml:space="preserve">rightocpoccipitalpole</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightocpoccipitalpole</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/occipital/rightocpoccipitalpole</t>
   </si>
   <si>
     <t xml:space="preserve">Right occipital fusiform gyrus</t>
@@ -1084,7 +1087,7 @@
     <t xml:space="preserve">rightofugoccipitalfusiformgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightofugoccipitalfusiformgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/occipital/rightofugoccipitalfusiformgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right superior occipital gyrus</t>
@@ -1093,7 +1096,7 @@
     <t xml:space="preserve">rightsogsuperioroccipitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightsogsuperioroccipitalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/occipital/rightsogsuperioroccipitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left angular gyrus</t>
@@ -1102,7 +1105,7 @@
     <t xml:space="preserve">leftangangulargyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/leftangangulargyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/parietal/leftangangulargyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left postcentral gyrus medial segment</t>
@@ -1111,7 +1114,7 @@
     <t xml:space="preserve">leftmpogpostcentralgyrusmedialsegment</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/leftmpogpostcentralgyrusmedialsegment</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/parietal/leftmpogpostcentralgyrusmedialsegment</t>
   </si>
   <si>
     <t xml:space="preserve">Left precuneus</t>
@@ -1120,7 +1123,7 @@
     <t xml:space="preserve">leftpcuprecuneus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/leftpcuprecuneus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/parietal/leftpcuprecuneus</t>
   </si>
   <si>
     <t xml:space="preserve">Left postcentral gyrus</t>
@@ -1129,7 +1132,7 @@
     <t xml:space="preserve">leftpogpostcentralgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/leftpogpostcentralgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/parietal/leftpogpostcentralgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left supramarginal gyrus</t>
@@ -1138,7 +1141,7 @@
     <t xml:space="preserve">leftsmgsupramarginalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/leftsmgsupramarginalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/parietal/leftsmgsupramarginalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left superior parietal lobule</t>
@@ -1147,7 +1150,7 @@
     <t xml:space="preserve">leftsplsuperiorparietallobule</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/leftsplsuperiorparietallobule</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/parietal/leftsplsuperiorparietallobule</t>
   </si>
   <si>
     <t xml:space="preserve">Right angular gyrus</t>
@@ -1156,7 +1159,7 @@
     <t xml:space="preserve">rightangangulargyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/rightangangulargyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/parietal/rightangangulargyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right postcentral gyrus medial segment</t>
@@ -1165,7 +1168,7 @@
     <t xml:space="preserve">rightmpogpostcentralgyrusmedialsegment</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/rightmpogpostcentralgyrusmedialsegment</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/parietal/rightmpogpostcentralgyrusmedialsegment</t>
   </si>
   <si>
     <t xml:space="preserve">Right precuneus</t>
@@ -1174,7 +1177,7 @@
     <t xml:space="preserve">rightpcuprecuneus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/rightpcuprecuneus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/parietal/rightpcuprecuneus</t>
   </si>
   <si>
     <t xml:space="preserve">Right postcentral gyrus</t>
@@ -1183,7 +1186,7 @@
     <t xml:space="preserve">rightpogpostcentralgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/rightpogpostcentralgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/parietal/rightpogpostcentralgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right supramarginal gyrus</t>
@@ -1192,7 +1195,7 @@
     <t xml:space="preserve">rightsmgsupramarginalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/rightsmgsupramarginalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/parietal/rightsmgsupramarginalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right superior parietal lobule</t>
@@ -1201,7 +1204,7 @@
     <t xml:space="preserve">rightsplsuperiorparietallobule</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/rightsplsuperiorparietallobule</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/parietal/rightsplsuperiorparietallobule</t>
   </si>
   <si>
     <t xml:space="preserve">Left fusiform gyrus</t>
@@ -1210,7 +1213,7 @@
     <t xml:space="preserve">leftfugfusiformgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftfugfusiformgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/temporal/leftfugfusiformgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left inferior temporal gyrus</t>
@@ -1219,7 +1222,7 @@
     <t xml:space="preserve">leftitginferiortemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftitginferiortemporalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/temporal/leftitginferiortemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left middle temporal gyrus</t>
@@ -1228,7 +1231,7 @@
     <t xml:space="preserve">leftmtgmiddletemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftmtgmiddletemporalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/temporal/leftmtgmiddletemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left planum polare</t>
@@ -1237,7 +1240,7 @@
     <t xml:space="preserve">leftppplanumpolare</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftppplanumpolare</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/temporal/leftppplanumpolare</t>
   </si>
   <si>
     <t xml:space="preserve">Left planum temporale</t>
@@ -1246,7 +1249,7 @@
     <t xml:space="preserve">leftptplanumtemporale</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftptplanumtemporale</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/temporal/leftptplanumtemporale</t>
   </si>
   <si>
     <t xml:space="preserve">Left superior temporal gyrus</t>
@@ -1255,7 +1258,7 @@
     <t xml:space="preserve">leftstgsuperiortemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftstgsuperiortemporalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/temporal/leftstgsuperiortemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left temporal pole</t>
@@ -1264,7 +1267,7 @@
     <t xml:space="preserve">lefttmptemporalpole</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/lefttmptemporalpole</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/temporal/lefttmptemporalpole</t>
   </si>
   <si>
     <t xml:space="preserve">Left transverse temporal gyrus</t>
@@ -1273,7 +1276,7 @@
     <t xml:space="preserve">leftttgtransversetemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftttgtransversetemporalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/temporal/leftttgtransversetemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right fusiform gyrus</t>
@@ -1282,7 +1285,7 @@
     <t xml:space="preserve">rightfugfusiformgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightfugfusiformgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/temporal/rightfugfusiformgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right inferior temporal gyrus</t>
@@ -1291,7 +1294,7 @@
     <t xml:space="preserve">rightitginferiortemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightitginferiortemporalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/temporal/rightitginferiortemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right middle temporal gyrus</t>
@@ -1300,7 +1303,7 @@
     <t xml:space="preserve">rightmtgmiddletemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightmtgmiddletemporalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/temporal/rightmtgmiddletemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right planum polare</t>
@@ -1309,7 +1312,7 @@
     <t xml:space="preserve">rightppplanumpolare</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightppplanumpolare</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/temporal/rightppplanumpolare</t>
   </si>
   <si>
     <t xml:space="preserve">Right planum temporale</t>
@@ -1318,7 +1321,7 @@
     <t xml:space="preserve">rightptplanumtemporale</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightptplanumtemporale</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/temporal/rightptplanumtemporale</t>
   </si>
   <si>
     <t xml:space="preserve">Right superior temporal gyrus</t>
@@ -1327,7 +1330,7 @@
     <t xml:space="preserve">rightstgsuperiortemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightstgsuperiortemporalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/temporal/rightstgsuperiortemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right temporal pole</t>
@@ -1336,7 +1339,7 @@
     <t xml:space="preserve">righttmptemporalpole</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/righttmptemporalpole</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/temporal/righttmptemporalpole</t>
   </si>
   <si>
     <t xml:space="preserve">Right transverse temporal gyrus</t>
@@ -1345,7 +1348,7 @@
     <t xml:space="preserve">rightttgtransversetemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightttgtransversetemporalgyrus</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/grey_matter_volume/temporal/rightttgtransversetemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left Cerebellum White Matter</t>
@@ -1354,7 +1357,7 @@
     <t xml:space="preserve">leftcerebellumwhitematter</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/white_matter_volume/leftcerebellumwhitematter</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/white_matter_volume/leftcerebellumwhitematter</t>
   </si>
   <si>
     <t xml:space="preserve">Left Cerebral White Matter</t>
@@ -1363,7 +1366,7 @@
     <t xml:space="preserve">leftcerebralwhitematter</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/white_matter_volume/leftcerebralwhitematter</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/white_matter_volume/leftcerebralwhitematter</t>
   </si>
   <si>
     <t xml:space="preserve">Optic chiasm</t>
@@ -1372,7 +1375,7 @@
     <t xml:space="preserve">opticchiasm</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/white_matter_volume/opticchiasm</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/white_matter_volume/opticchiasm</t>
   </si>
   <si>
     <t xml:space="preserve">Right Cerebellum White Matter</t>
@@ -1381,7 +1384,7 @@
     <t xml:space="preserve">rightcerebellumwhitematter</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/white_matter_volume/rightcerebellumwhitematter</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/white_matter_volume/rightcerebellumwhitematter</t>
   </si>
   <si>
     <t xml:space="preserve">Right Cerebral White Matter</t>
@@ -1390,7 +1393,7 @@
     <t xml:space="preserve">rightcerebralwhitematter</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/white_matter_volume/rightcerebralwhitematter</t>
+    <t xml:space="preserve">/multiplesclerosis/brain_anatomy/white_matter_volume/rightcerebralwhitematter</t>
   </si>
   <si>
     <t xml:space="preserve">Dataset</t>
@@ -1399,13 +1402,13 @@
     <t xml:space="preserve">dataset</t>
   </si>
   <si>
-    <t xml:space="preserve">text</t>
+    <t xml:space="preserve">{“plovdiv”,”Plovdiv”}</t>
   </si>
   <si>
     <t xml:space="preserve">Variable used to differentiate datasets</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/dataset</t>
+    <t xml:space="preserve">/multiplesclerosis/dataset</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1418,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1443,6 +1446,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1487,7 +1495,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1502,6 +1510,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1523,23 +1535,23 @@
   </sheetPr>
   <dimension ref="1:148"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="81.8316326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1902,16 +1914,19 @@
       <c r="J13" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="K13" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
@@ -1922,11 +1937,14 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1934,10 +1952,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>19</v>
@@ -1950,7 +1968,10 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1958,10 +1979,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>19</v>
@@ -1974,7 +1995,10 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,10 +2006,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>19</v>
@@ -1998,7 +2022,10 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2006,10 +2033,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>19</v>
@@ -2022,7 +2049,10 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2030,10 +2060,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -2046,7 +2076,10 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2054,10 +2087,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>19</v>
@@ -2070,7 +2103,10 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2078,10 +2114,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>19</v>
@@ -2094,7 +2130,10 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,10 +2141,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>19</v>
@@ -2118,7 +2157,10 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2126,10 +2168,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>19</v>
@@ -2142,7 +2184,10 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2150,10 +2195,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>19</v>
@@ -2166,7 +2211,10 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2174,10 +2222,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>19</v>
@@ -2190,7 +2238,10 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2198,10 +2249,10 @@
         <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>19</v>
@@ -2214,7 +2265,10 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2222,10 +2276,10 @@
         <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>19</v>
@@ -2238,7 +2292,10 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,10 +2303,10 @@
         <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>19</v>
@@ -2262,7 +2319,10 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2270,10 +2330,10 @@
         <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>19</v>
@@ -2286,7 +2346,10 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2294,10 +2357,10 @@
         <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>19</v>
@@ -2310,7 +2373,10 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,10 +2384,10 @@
         <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>19</v>
@@ -2334,7 +2400,10 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,10 +2411,10 @@
         <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>19</v>
@@ -2358,7 +2427,10 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,10 +2438,10 @@
         <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>19</v>
@@ -2382,7 +2454,10 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,10 +2465,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>19</v>
@@ -2406,7 +2481,10 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,10 +2492,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>19</v>
@@ -2430,7 +2508,10 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,10 +2519,10 @@
         <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>19</v>
@@ -2454,7 +2535,10 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2462,10 +2546,10 @@
         <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>19</v>
@@ -2478,7 +2562,10 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,10 +2573,10 @@
         <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>19</v>
@@ -2502,7 +2589,10 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,10 +2600,10 @@
         <v>11</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>19</v>
@@ -2526,7 +2616,10 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2534,10 +2627,10 @@
         <v>11</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>19</v>
@@ -2550,7 +2643,10 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2558,10 +2654,10 @@
         <v>11</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>19</v>
@@ -2574,7 +2670,10 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,10 +2681,10 @@
         <v>11</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>19</v>
@@ -2598,7 +2697,10 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,10 +2708,10 @@
         <v>11</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>19</v>
@@ -2622,7 +2724,10 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,10 +2735,10 @@
         <v>11</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>19</v>
@@ -2646,7 +2751,10 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,10 +2762,10 @@
         <v>11</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>19</v>
@@ -2670,7 +2778,10 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,10 +2789,10 @@
         <v>11</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>19</v>
@@ -2694,7 +2805,10 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,10 +2816,10 @@
         <v>11</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>19</v>
@@ -2718,7 +2832,10 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,10 +2843,10 @@
         <v>11</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>19</v>
@@ -2742,7 +2859,10 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,10 +2870,10 @@
         <v>11</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>19</v>
@@ -2766,7 +2886,10 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,10 +2897,10 @@
         <v>11</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>19</v>
@@ -2790,7 +2913,10 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,10 +2924,10 @@
         <v>11</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>19</v>
@@ -2814,7 +2940,10 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2822,10 +2951,10 @@
         <v>11</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>19</v>
@@ -2838,7 +2967,10 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,10 +2978,10 @@
         <v>11</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>19</v>
@@ -2862,7 +2994,10 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2870,10 +3005,10 @@
         <v>11</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>19</v>
@@ -2886,7 +3021,10 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2894,10 +3032,10 @@
         <v>11</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>19</v>
@@ -2910,7 +3048,10 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2918,10 +3059,10 @@
         <v>11</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>19</v>
@@ -2934,7 +3075,10 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2942,10 +3086,10 @@
         <v>11</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>19</v>
@@ -2958,7 +3102,10 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,10 +3113,10 @@
         <v>11</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>19</v>
@@ -2982,7 +3129,10 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2990,10 +3140,10 @@
         <v>11</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>19</v>
@@ -3006,7 +3156,10 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3014,10 +3167,10 @@
         <v>11</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>19</v>
@@ -3030,7 +3183,10 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,10 +3194,10 @@
         <v>11</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>19</v>
@@ -3054,7 +3210,10 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,10 +3221,10 @@
         <v>11</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>19</v>
@@ -3078,7 +3237,10 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3086,10 +3248,10 @@
         <v>11</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>19</v>
@@ -3102,7 +3264,10 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,10 +3275,10 @@
         <v>11</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>19</v>
@@ -3126,7 +3291,10 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,10 +3302,10 @@
         <v>11</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>19</v>
@@ -3150,7 +3318,10 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,10 +3329,10 @@
         <v>11</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>19</v>
@@ -3174,7 +3345,10 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3182,10 +3356,10 @@
         <v>11</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>19</v>
@@ -3198,7 +3372,10 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3206,10 +3383,10 @@
         <v>11</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>19</v>
@@ -3222,7 +3399,10 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,10 +3410,10 @@
         <v>11</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>19</v>
@@ -3246,7 +3426,10 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,10 +3437,10 @@
         <v>11</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>19</v>
@@ -3270,7 +3453,10 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3278,10 +3464,10 @@
         <v>11</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>19</v>
@@ -3294,7 +3480,10 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,10 +3491,10 @@
         <v>11</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>19</v>
@@ -3318,7 +3507,10 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,10 +3518,10 @@
         <v>11</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>19</v>
@@ -3342,7 +3534,10 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3350,10 +3545,10 @@
         <v>11</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>19</v>
@@ -3366,7 +3561,10 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3374,10 +3572,10 @@
         <v>11</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>19</v>
@@ -3390,7 +3588,10 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,10 +3599,10 @@
         <v>11</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>19</v>
@@ -3414,7 +3615,10 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,10 +3626,10 @@
         <v>11</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>19</v>
@@ -3438,7 +3642,10 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,10 +3653,10 @@
         <v>11</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>19</v>
@@ -3462,7 +3669,10 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3470,10 +3680,10 @@
         <v>11</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>19</v>
@@ -3486,7 +3696,10 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3494,10 +3707,10 @@
         <v>11</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>19</v>
@@ -3510,7 +3723,10 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3518,10 +3734,10 @@
         <v>11</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>19</v>
@@ -3534,7 +3750,10 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3542,10 +3761,10 @@
         <v>11</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>19</v>
@@ -3558,7 +3777,10 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3566,10 +3788,10 @@
         <v>11</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>19</v>
@@ -3582,7 +3804,10 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,10 +3815,10 @@
         <v>11</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>19</v>
@@ -3606,7 +3831,10 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,10 +3842,10 @@
         <v>11</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>19</v>
@@ -3630,7 +3858,10 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,10 +3869,10 @@
         <v>11</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>19</v>
@@ -3654,7 +3885,10 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3662,10 +3896,10 @@
         <v>11</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>19</v>
@@ -3678,7 +3912,10 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3686,10 +3923,10 @@
         <v>11</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>19</v>
@@ -3702,7 +3939,10 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3710,10 +3950,10 @@
         <v>11</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>19</v>
@@ -3726,7 +3966,10 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,10 +3977,10 @@
         <v>11</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>19</v>
@@ -3750,7 +3993,10 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3758,10 +4004,10 @@
         <v>11</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>19</v>
@@ -3774,7 +4020,10 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3782,10 +4031,10 @@
         <v>11</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>19</v>
@@ -3798,7 +4047,10 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3806,10 +4058,10 @@
         <v>11</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>19</v>
@@ -3822,7 +4074,10 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3830,10 +4085,10 @@
         <v>11</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>19</v>
@@ -3846,7 +4101,10 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,10 +4112,10 @@
         <v>11</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>19</v>
@@ -3870,7 +4128,10 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3878,10 +4139,10 @@
         <v>11</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>19</v>
@@ -3894,7 +4155,10 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3902,10 +4166,10 @@
         <v>11</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>19</v>
@@ -3918,7 +4182,10 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
+      </c>
+      <c r="K97" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3926,10 +4193,10 @@
         <v>11</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>19</v>
@@ -3942,7 +4209,10 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3950,10 +4220,10 @@
         <v>11</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>19</v>
@@ -3966,7 +4236,10 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3974,10 +4247,10 @@
         <v>11</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>19</v>
@@ -3990,7 +4263,10 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3998,10 +4274,10 @@
         <v>11</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>19</v>
@@ -4014,7 +4290,10 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4022,10 +4301,10 @@
         <v>11</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>19</v>
@@ -4038,7 +4317,10 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="K102" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4046,10 +4328,10 @@
         <v>11</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>19</v>
@@ -4062,7 +4344,10 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
+      </c>
+      <c r="K103" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,10 +4355,10 @@
         <v>11</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>19</v>
@@ -4086,7 +4371,10 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
+      </c>
+      <c r="K104" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4094,10 +4382,10 @@
         <v>11</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>19</v>
@@ -4110,7 +4398,10 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4118,10 +4409,10 @@
         <v>11</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>19</v>
@@ -4134,7 +4425,10 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
+      </c>
+      <c r="K106" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4142,10 +4436,10 @@
         <v>11</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>19</v>
@@ -4158,7 +4452,10 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
+      </c>
+      <c r="K107" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,10 +4463,10 @@
         <v>11</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>19</v>
@@ -4182,7 +4479,10 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="K108" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4190,10 +4490,10 @@
         <v>11</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>19</v>
@@ -4206,7 +4506,10 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4214,10 +4517,10 @@
         <v>11</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>19</v>
@@ -4230,7 +4533,10 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
+      </c>
+      <c r="K110" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4238,10 +4544,10 @@
         <v>11</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>19</v>
@@ -4254,7 +4560,10 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4262,10 +4571,10 @@
         <v>11</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>19</v>
@@ -4278,7 +4587,10 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
+      </c>
+      <c r="K112" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4286,10 +4598,10 @@
         <v>11</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>19</v>
@@ -4302,7 +4614,10 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4310,10 +4625,10 @@
         <v>11</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>19</v>
@@ -4326,7 +4641,10 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
+      </c>
+      <c r="K114" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,10 +4652,10 @@
         <v>11</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>19</v>
@@ -4350,7 +4668,10 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
+      </c>
+      <c r="K115" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4358,10 +4679,10 @@
         <v>11</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>19</v>
@@ -4374,7 +4695,10 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
+      </c>
+      <c r="K116" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4382,10 +4706,10 @@
         <v>11</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>19</v>
@@ -4398,7 +4722,10 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
+      </c>
+      <c r="K117" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,10 +4733,10 @@
         <v>11</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>19</v>
@@ -4422,7 +4749,10 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
+      </c>
+      <c r="K118" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,10 +4760,10 @@
         <v>11</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>19</v>
@@ -4446,7 +4776,10 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,10 +4787,10 @@
         <v>11</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>19</v>
@@ -4470,7 +4803,10 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
+      </c>
+      <c r="K120" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,10 +4814,10 @@
         <v>11</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>19</v>
@@ -4494,7 +4830,10 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4502,10 +4841,10 @@
         <v>11</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>19</v>
@@ -4518,7 +4857,10 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4526,10 +4868,10 @@
         <v>11</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>19</v>
@@ -4542,7 +4884,10 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
+      </c>
+      <c r="K123" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,10 +4895,10 @@
         <v>11</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>19</v>
@@ -4566,7 +4911,10 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
+      </c>
+      <c r="K124" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,10 +4922,10 @@
         <v>11</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>19</v>
@@ -4590,7 +4938,10 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
+      </c>
+      <c r="K125" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4598,10 +4949,10 @@
         <v>11</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>19</v>
@@ -4614,7 +4965,10 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
+      </c>
+      <c r="K126" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,10 +4976,10 @@
         <v>11</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>19</v>
@@ -4638,7 +4992,10 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
+      </c>
+      <c r="K127" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4646,10 +5003,10 @@
         <v>11</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>19</v>
@@ -4662,7 +5019,10 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
+      </c>
+      <c r="K128" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,10 +5030,10 @@
         <v>11</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>19</v>
@@ -4686,7 +5046,10 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
+      </c>
+      <c r="K129" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4694,10 +5057,10 @@
         <v>11</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>19</v>
@@ -4710,7 +5073,10 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
+      </c>
+      <c r="K130" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4718,10 +5084,10 @@
         <v>11</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>19</v>
@@ -4734,7 +5100,10 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
+      </c>
+      <c r="K131" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4742,10 +5111,10 @@
         <v>11</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>19</v>
@@ -4758,7 +5127,10 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
+      </c>
+      <c r="K132" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4766,10 +5138,10 @@
         <v>11</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>19</v>
@@ -4782,7 +5154,10 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
+      </c>
+      <c r="K133" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,10 +5165,10 @@
         <v>11</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>19</v>
@@ -4806,7 +5181,10 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="K134" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4814,10 +5192,10 @@
         <v>11</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>19</v>
@@ -4830,7 +5208,10 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
+      </c>
+      <c r="K135" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4838,10 +5219,10 @@
         <v>11</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>19</v>
@@ -4854,7 +5235,10 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
+      </c>
+      <c r="K136" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4862,10 +5246,10 @@
         <v>11</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>19</v>
@@ -4878,7 +5262,10 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
+      </c>
+      <c r="K137" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4886,10 +5273,10 @@
         <v>11</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>19</v>
@@ -4902,7 +5289,10 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
       <c r="J138" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
+      </c>
+      <c r="K138" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4910,10 +5300,10 @@
         <v>11</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>19</v>
@@ -4926,7 +5316,10 @@
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
       <c r="J139" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="K139" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4934,10 +5327,10 @@
         <v>11</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>19</v>
@@ -4950,7 +5343,10 @@
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
+      </c>
+      <c r="K140" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4958,10 +5354,10 @@
         <v>11</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>19</v>
@@ -4974,7 +5370,10 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
+      </c>
+      <c r="K141" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4982,10 +5381,10 @@
         <v>11</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>19</v>
@@ -4998,7 +5397,10 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="K142" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5006,10 +5408,10 @@
         <v>11</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>19</v>
@@ -5022,7 +5424,10 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
+      </c>
+      <c r="K143" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5030,10 +5435,10 @@
         <v>11</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>19</v>
@@ -5046,7 +5451,10 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
+      </c>
+      <c r="K144" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5054,10 +5462,10 @@
         <v>11</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>19</v>
@@ -5070,7 +5478,10 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
+      </c>
+      <c r="K145" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5078,10 +5489,10 @@
         <v>11</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>19</v>
@@ -5094,7 +5505,10 @@
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
       <c r="J146" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
+      </c>
+      <c r="K146" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5102,10 +5516,10 @@
         <v>11</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>19</v>
@@ -5118,7 +5532,10 @@
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
+      </c>
+      <c r="K147" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5126,23 +5543,28 @@
         <v>11</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E148" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>460</v>
+      </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I148" s="2"/>
       <c r="J148" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="K148" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
